--- a/www/plys/Tern/PeridClass.xlsx
+++ b/www/plys/Tern/PeridClass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RockR! v1.9.1\plys\Tern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4ED4F-AF7B-40D2-A685-4F1E20BD488D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,23 @@
     <sheet name="axes" sheetId="3" r:id="rId3"/>
     <sheet name="perid_pyro_distinction" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>A</t>
   </si>
@@ -59,9 +66,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Olivine</t>
-  </si>
-  <si>
     <t>Opx</t>
   </si>
   <si>
@@ -105,12 +109,33 @@
   </si>
   <si>
     <t>Pyroxenites</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
+    <t>Ol</t>
+  </si>
+  <si>
+    <t>Orthopyroxene (%)</t>
+  </si>
+  <si>
+    <t>Olivine (%)</t>
+  </si>
+  <si>
+    <t>Clinopyroxene (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,21 +485,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -502,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -519,13 +544,13 @@
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -536,13 +561,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -553,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>90</v>
       </c>
@@ -570,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>90</v>
       </c>
@@ -587,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>90</v>
       </c>
@@ -604,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>90</v>
       </c>
@@ -621,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>40</v>
       </c>
@@ -638,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>40</v>
       </c>
@@ -655,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>90</v>
       </c>
@@ -672,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>40</v>
       </c>
@@ -689,13 +714,13 @@
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>40</v>
       </c>
@@ -706,13 +731,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>40</v>
       </c>
@@ -723,13 +748,13 @@
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>40</v>
       </c>
@@ -740,13 +765,13 @@
         <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -757,13 +782,13 @@
         <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -774,13 +799,13 @@
         <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>40</v>
       </c>
@@ -791,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>40</v>
       </c>
@@ -808,13 +833,13 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -825,13 +850,13 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -842,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>40</v>
       </c>
@@ -859,13 +884,13 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>40</v>
       </c>
@@ -876,13 +901,13 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -893,13 +918,13 @@
         <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -910,13 +935,13 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -927,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>10</v>
       </c>
@@ -944,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -961,13 +986,13 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>5</v>
       </c>
@@ -978,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -995,13 +1020,13 @@
         <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1012,13 +1037,13 @@
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -1029,13 +1054,13 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -1046,13 +1071,13 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>90</v>
       </c>
@@ -1063,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>40</v>
       </c>
@@ -1080,13 +1105,13 @@
         <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>40</v>
       </c>
@@ -1097,19 +1122,19 @@
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,19 +1142,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1155,9 +1180,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>-6</v>
@@ -1181,9 +1206,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>93</v>
@@ -1207,9 +1232,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <f>AVERAGE(plys!A8:A11)</f>
@@ -1236,9 +1261,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <f>AVERAGE(plys!A12:A14)</f>
@@ -1265,9 +1290,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <f>AVERAGE(plys!A15:A18)</f>
@@ -1294,9 +1319,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <f>AVERAGE(plys!A19:A22)</f>
@@ -1323,9 +1348,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(plys!A23:A26)</f>
@@ -1352,9 +1377,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
         <v>-6</v>
@@ -1378,9 +1403,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(plys!A30:A33)</f>
@@ -1408,9 +1433,9 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <f>AVERAGE(plys!A34:A37)</f>
@@ -1438,14 +1463,14 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1453,16 +1478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,21 +1501,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1496,18 +1542,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2">
         <v>47</v>
@@ -1531,9 +1577,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>33</v>
